--- a/biology/Botanique/Acis_fabrei/Acis_fabrei.xlsx
+++ b/biology/Botanique/Acis_fabrei/Acis_fabrei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">nivéole de Fabre
 Acis fabrei, ou nivéole de Fabre, est une espèce de plante herbacée qui appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique les places dans la famille des Amaryllidaceae (ou optionnellement dans celle des  Alliaceae). Cette Acis fleurit au printemps.
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acis fabrei provient principalement de lieux méditerranéens très limités. Elle jouit pour cette raison de protection au niveau national. 
 La nivéole de Fabre, Acis fabrei (Quézel &amp; Girerd) Lledó, A.P.Davis &amp; M.B.Crespo découverte en 1880 par J.-H. Fabre, n’a été formellement reconnue comme une nouvelle espèce qu’en 1990. Cette nivéole a des fleurs plus grandes que celle de Nice, toujours solitaires. On la trouve uniquement sur le flanc sud du Mont Ventoux, où quatre stations sont connues.
@@ -544,7 +558,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Menacée (Vulnérable pour l'UICN).
 </t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Lledó, M.D., Davis, A.P., Crespo M.B., Chase M.W. &amp; Fay M.F., 2004. Phylogenetic analysis of Leucojum and Galanthus (Amaryllidaceae) based on plastid mat K and nuclear ribosomal spacer (ITS) DNA sequences and morphology. Plant Systematics and Evolution 246(3–4): 223–243, DOI 10.1007/s00606-004-0152-0.</t>
         </is>
